--- a/StructureDefinition-profile-Specimen.xlsx
+++ b/StructureDefinition-profile-Specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2153" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="447">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7926562-06:00</t>
+    <t>2026-02-09T22:05:43.3292389-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -416,33 +416,98 @@
     <t>Specimen.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Specimen.extension:combined</t>
+  </si>
+  <si>
+    <t>combined</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.combined|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.combined from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This element signifies if the specimen is part of a group or pooled.</t>
+  </si>
+  <si>
+    <t>Element `Specimen.combined` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Specimen.extension:role</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.role|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.role from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The role or reason for the specimen in the testing workflow.</t>
+  </si>
+  <si>
+    <t>Element `Specimen.role` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+  </si>
+  <si>
+    <t>Specimen.extension:feature</t>
+  </si>
+  <si>
+    <t>feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.feature from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A physical feature or landmark on a specimen, highlighted for context by the collector of the specimen (e.g. surgeon), that identifies the type of feature as well as its meaning (e.g. the red ink indicating the resection margin of the right lobe of the excised prostate tissue or wire loop at radiologically suspected tumor location).</t>
+  </si>
+  <si>
+    <t>Element `Specimen.feature` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+  </si>
+  <si>
+    <t>Specimen.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Specimen.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -450,6 +515,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -686,10 +754,46 @@
     <t>Specimen.collection.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.device|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.collection.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>Element `Specimen.collection.device` is will have a context of Specimen.collection based on following the parent source element upwards and mapping to `Specimen`.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.extension:procedure</t>
+  </si>
+  <si>
+    <t>procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.collection.procedure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Procedure in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.collection.procedure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Specimen.collection.procedure` is will have a context of Specimen.collection based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -737,27 +841,23 @@
     <t>Specimen.collection.collector.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.collector|0.0.1-snapshot-3}
-</t>
+    <t>Specimen.collection.collector.extension:collector</t>
+  </si>
+  <si>
+    <t>collector</t>
   </si>
   <si>
     <t>Cross-version extension for Specimen.collection.collector from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.collection.collector` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Specimen.collection.collector` is mapped to FHIR R4 element `Specimen.collection.collector`.</t>
   </si>
   <si>
     <t>Specimen.collection.collector.reference</t>
@@ -900,9 +1000,6 @@
     <t>Technique used to perform collection</t>
   </si>
   <si>
-    <t>A coded value specifying the technique that is used to perform the procedure.</t>
-  </si>
-  <si>
     <t>The  technique that is used to perform the procedure.</t>
   </si>
   <si>
@@ -943,6 +1040,12 @@
   </si>
   <si>
     <t>Specimen.collection.bodySite.extension</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.bodySite|0.0.1-snapshot-3}
@@ -952,7 +1055,7 @@
     <t>Cross-version extension for Specimen.collection.bodySite from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Reasons for using BodyStructure reference include: 1.) Need to identify a specific site instance (e.g. a specific mole), 2.) a single pre-coordinated coded concept for the body site does not exist, 3.) a desire to represent bodySite using multiple attributes (e.g. modifiers).</t>
+    <t>Element `Specimen.collection.bodySite` is mapped to FHIR R4 element `Specimen.collection.bodySite`.</t>
   </si>
   <si>
     <t>Specimen.collection.bodySite.coding</t>
@@ -1053,6 +1156,12 @@
     <t>Specimen.processing.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Specimen.processing.modifierExtension</t>
   </si>
   <si>
@@ -1127,6 +1236,35 @@
   </si>
   <si>
     <t>Specimen.container.extension</t>
+  </si>
+  <si>
+    <t>Specimen.container.extension:device</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.container.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.container.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Specimen.container.device` is will have a context of Specimen.container based on following the parent source element upwards and mapping to `Specimen`.</t>
+  </si>
+  <si>
+    <t>Specimen.container.extension:location</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.container.location from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.container.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Specimen.container.location` is will have a context of Specimen.container based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Specimen.container.modifierExtension</t>
@@ -1573,7 +1711,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM61"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1582,7 +1720,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="32.90625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.90625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -2523,7 +2661,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2542,17 +2680,15 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>134</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2589,16 +2725,14 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>135</v>
@@ -2616,7 +2750,7 @@
         <v>136</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>76</v>
@@ -2630,43 +2764,43 @@
         <v>137</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>76</v>
       </c>
@@ -2714,7 +2848,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2723,13 +2857,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>76</v>
@@ -2740,12 +2874,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
       </c>
@@ -2763,18 +2899,20 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>148</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>149</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2823,7 +2961,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2832,29 +2970,31 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>148</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
@@ -2863,7 +3003,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2872,18 +3012,20 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>76</v>
@@ -2932,47 +3074,47 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>153</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2981,21 +3123,23 @@
         <v>86</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O13" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O13" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
       </c>
@@ -3019,13 +3163,13 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>76</v>
@@ -3043,36 +3187,36 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3083,7 +3227,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -3095,17 +3239,15 @@
         <v>86</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3130,13 +3272,13 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -3154,13 +3296,13 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
@@ -3169,21 +3311,21 @@
         <v>97</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3206,18 +3348,16 @@
         <v>86</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>179</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>76</v>
       </c>
@@ -3265,7 +3405,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3280,21 +3420,21 @@
         <v>97</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3311,21 +3451,23 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>105</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3350,13 +3492,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3374,7 +3516,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3389,21 +3531,21 @@
         <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3414,7 +3556,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3423,19 +3565,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3461,13 +3603,13 @@
         <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>76</v>
@@ -3485,13 +3627,13 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
@@ -3500,21 +3642,21 @@
         <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3525,7 +3667,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -3534,21 +3676,21 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3596,13 +3738,13 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
@@ -3611,13 +3753,13 @@
         <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3645,7 +3787,7 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>204</v>
@@ -3723,18 +3865,18 @@
         <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3745,7 +3887,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3757,15 +3899,17 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3814,22 +3958,22 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3840,14 +3984,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -3866,16 +4010,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3925,7 +4069,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3937,60 +4081,56 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
       </c>
@@ -4038,36 +4178,36 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4087,16 +4227,16 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4147,7 +4287,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4159,24 +4299,24 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4187,7 +4327,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4199,13 +4339,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4244,34 +4384,32 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4282,22 +4420,24 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4308,15 +4448,17 @@
         <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>76</v>
@@ -4353,19 +4495,19 @@
         <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4374,7 +4516,7 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>136</v>
@@ -4391,12 +4533,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4417,15 +4561,17 @@
         <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4474,7 +4620,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4500,44 +4646,46 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4585,19 +4733,19 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>128</v>
@@ -4611,10 +4759,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4637,17 +4785,15 @@
         <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>99</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>248</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4672,13 +4818,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4696,7 +4842,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4711,21 +4857,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>128</v>
+        <v>259</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4745,20 +4891,18 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -4807,7 +4951,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4819,10 +4963,10 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4833,10 +4977,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4847,7 +4991,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -4856,20 +5000,18 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4906,34 +5048,34 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4944,12 +5086,14 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4967,18 +5111,20 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5027,36 +5173,36 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5079,15 +5225,17 @@
         <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5136,7 +5284,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5145,16 +5293,16 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>76</v>
@@ -5162,10 +5310,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5185,10 +5333,10 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>277</v>
@@ -5196,7 +5344,9 @@
       <c r="M33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5221,13 +5371,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5245,7 +5395,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5260,21 +5410,21 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5294,18 +5444,20 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5330,13 +5482,13 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5354,7 +5506,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5369,21 +5521,21 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5403,19 +5555,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5441,13 +5593,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5465,7 +5617,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5480,21 +5632,21 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>128</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5514,16 +5666,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>211</v>
+        <v>297</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5574,7 +5726,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5586,24 +5738,24 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>214</v>
+        <v>299</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5611,11 +5763,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5623,16 +5775,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5671,37 +5823,37 @@
         <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>217</v>
+        <v>302</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5709,10 +5861,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5735,17 +5887,15 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5794,36 +5944,36 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>217</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5834,7 +5984,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5843,23 +5993,19 @@
         <v>76</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>302</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
       </c>
@@ -5883,13 +6029,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5907,13 +6053,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5922,21 +6068,21 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5956,23 +6102,21 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5996,13 +6140,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6020,7 +6164,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6035,21 +6179,21 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6069,23 +6213,19 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>232</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
       </c>
@@ -6109,13 +6249,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6133,7 +6273,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>234</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6145,16 +6285,16 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>326</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -6185,13 +6325,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6230,19 +6370,19 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>264</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>327</v>
+        <v>237</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6254,10 +6394,10 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6268,12 +6408,14 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6294,15 +6436,17 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>210</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6351,22 +6495,22 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6377,14 +6521,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6400,21 +6544,23 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>132</v>
+        <v>335</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6462,7 +6608,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6474,59 +6620,59 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>220</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -6575,36 +6721,36 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>222</v>
+        <v>347</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>128</v>
+        <v>348</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6624,19 +6770,23 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>210</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>353</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6660,13 +6810,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6684,7 +6834,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6699,21 +6849,21 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6724,7 +6874,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6736,13 +6886,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6769,13 +6919,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6793,13 +6943,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6808,7 +6958,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>172</v>
+        <v>362</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6819,10 +6969,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6833,7 +6983,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6845,13 +6995,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>344</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6902,47 +7052,47 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>234</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6954,15 +7104,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7011,22 +7163,22 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7037,14 +7189,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7057,22 +7209,26 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>252</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7120,7 +7276,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>352</v>
+        <v>254</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7132,10 +7288,10 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7146,10 +7302,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7172,13 +7328,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>211</v>
+        <v>369</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>212</v>
+        <v>370</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7229,7 +7385,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7241,10 +7397,10 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>214</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -7255,21 +7411,21 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7281,17 +7437,15 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>132</v>
+        <v>373</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7316,13 +7470,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>375</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7340,22 +7494,22 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7366,14 +7520,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7386,26 +7540,22 @@
         <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>378</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7453,7 +7603,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>222</v>
+        <v>377</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7465,24 +7615,24 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>128</v>
+        <v>381</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7493,7 +7643,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7502,16 +7652,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7562,13 +7712,13 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
@@ -7577,21 +7727,21 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>146</v>
+        <v>299</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7602,7 +7752,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7614,13 +7764,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7671,13 +7821,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7686,7 +7836,7 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7697,10 +7847,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7723,13 +7873,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>369</v>
+        <v>233</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7756,13 +7906,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7780,7 +7930,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7792,24 +7942,24 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7817,10 +7967,10 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7832,13 +7982,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7877,56 +8027,56 @@
         <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC57" s="2"/>
       <c r="AD57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -7941,15 +8091,17 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7998,38 +8150,40 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>378</v>
+        <v>237</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>381</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>76</v>
       </c>
@@ -8050,15 +8204,17 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>384</v>
+        <v>246</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8083,13 +8239,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>388</v>
+        <v>76</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -8107,40 +8263,40 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>383</v>
+        <v>237</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>389</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>390</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8153,25 +8309,25 @@
         <v>76</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>392</v>
+        <v>252</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>393</v>
+        <v>253</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>394</v>
+        <v>160</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>395</v>
+        <v>161</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8196,13 +8352,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8220,7 +8376,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>391</v>
+        <v>254</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8232,24 +8388,24 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>398</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8269,16 +8425,16 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>400</v>
+        <v>164</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>50</v>
+        <v>403</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8329,7 +8485,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8344,13 +8500,780 @@
         <v>97</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>402</v>
+        <v>167</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>446</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Specimen.xlsx
+++ b/StructureDefinition-profile-Specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="384">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3292389-06:00</t>
+    <t>2026-02-17T14:42:26.9004882-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -456,7 +456,7 @@
     <t>This element signifies if the specimen is part of a group or pooled.</t>
   </si>
   <si>
-    <t>Element `Specimen.combined` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Element `Specimen.combined` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -479,7 +479,7 @@
     <t>The role or reason for the specimen in the testing workflow.</t>
   </si>
   <si>
-    <t>Element `Specimen.role` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Element `Specimen.role` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Specimen.extension:feature</t>
@@ -498,7 +498,7 @@
     <t>A physical feature or landmark on a specimen, highlighted for context by the collector of the specimen (e.g. surgeon), that identifies the type of feature as well as its meaning (e.g. the red ink indicating the resection margin of the right lobe of the excised prostate tissue or wire loop at radiologically suspected tumor location).</t>
   </si>
   <si>
-    <t>Element `Specimen.feature` is will have a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Element `Specimen.feature` has a context of Specimen based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Specimen.modifierExtension</t>
@@ -757,43 +757,20 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Specimen.collection.extension:device</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.device|0.0.1-snapshot-3}
+    <t>Specimen.collection.extension:collection</t>
+  </si>
+  <si>
+    <t>collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Specimen.collection.device from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A coded value specifying the technique that is used to perform the procedure.</t>
-  </si>
-  <si>
-    <t>Element `Specimen.collection.device` is will have a context of Specimen.collection based on following the parent source element upwards and mapping to `Specimen`.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension:procedure</t>
-  </si>
-  <si>
-    <t>procedure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.collection.procedure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Procedure in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.collection.procedure` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Specimen.collection.procedure` is will have a context of Specimen.collection based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Cross-version extension for Specimen.collection from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Specimen.collection` has is mapped to FHIR R4 element `Specimen.collection`, but has no comparisons.</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -835,111 +812,6 @@
     <t>PRT</t>
   </si>
   <si>
-    <t>Specimen.collection.collector.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector.extension:collector</t>
-  </si>
-  <si>
-    <t>collector</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.collection.collector from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Patient,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.collection.collector` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Specimen.collection.collector` is mapped to FHIR R4 element `Specimen.collection.collector`.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Specimen.collection.collector.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>Specimen.collection.collected[x]</t>
   </si>
   <si>
@@ -1000,6 +872,9 @@
     <t>Technique used to perform collection</t>
   </si>
   <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
     <t>The  technique that is used to perform the procedure.</t>
   </si>
   <si>
@@ -1034,80 +909,6 @@
   </si>
   <si>
     <t>SPM-8 and SPM-9</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.extension:bodySite</t>
-  </si>
-  <si>
-    <t>bodySite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.bodySite|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.collection.bodySite from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Specimen.collection.bodySite` is mapped to FHIR R4 element `Specimen.collection.bodySite`.</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Specimen.collection.bodySite.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Specimen.collection.fastingStatus[x]</t>
@@ -1129,6 +930,9 @@
     <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes describing the fasting status of the patient.</t>
   </si>
   <si>
@@ -1156,10 +960,20 @@
     <t>Specimen.processing.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Specimen.processing.extension:processing</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.processing|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.processing from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Specimen.processing` has is mapped to FHIR R4 element `Specimen.processing`, but has no comparisons.</t>
   </si>
   <si>
     <t>Specimen.processing.modifierExtension</t>
@@ -1238,33 +1052,20 @@
     <t>Specimen.container.extension</t>
   </si>
   <si>
-    <t>Specimen.container.extension:device</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.container.device from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Device in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.container.device` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Specimen.container.device` is will have a context of Specimen.container based on following the parent source element upwards and mapping to `Specimen`.</t>
-  </si>
-  <si>
-    <t>Specimen.container.extension:location</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.container.location from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Location in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.container.location` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Specimen.container.location` is will have a context of Specimen.container based on following the parent source element upwards and mapping to `Specimen`.</t>
+    <t>Specimen.container.extension:container</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.container|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.container from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Specimen.container` has is mapped to FHIR R4 element `Specimen.container`, but has no comparisons.</t>
   </si>
   <si>
     <t>Specimen.container.modifierExtension</t>
@@ -1711,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AM55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1720,7 +1521,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.1640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.90625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1730,7 +1531,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.6875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1744,11 +1545,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.3203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="32.09375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4454,10 +4255,10 @@
         <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4533,46 +4334,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4620,7 +4421,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4635,7 +4436,7 @@
         <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4646,46 +4447,42 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4733,28 +4530,28 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4688,16 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>263</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4951,7 +4748,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4963,13 +4760,13 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>76</v>
@@ -4977,10 +4774,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4991,7 +4788,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>76</v>
@@ -5003,13 +4800,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5048,52 +4845,50 @@
         <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>76</v>
       </c>
@@ -5114,17 +4909,15 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>246</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5149,13 +4942,13 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
@@ -5173,36 +4966,36 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5222,19 +5015,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5260,13 +5053,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5284,7 +5077,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5293,27 +5086,27 @@
         <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>128</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5336,18 +5129,20 @@
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5371,13 +5166,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5395,7 +5190,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5410,21 +5205,21 @@
         <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5435,7 +5230,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5444,20 +5239,18 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
@@ -5506,13 +5299,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5521,7 +5314,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
@@ -5532,10 +5325,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5555,20 +5348,18 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>231</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>232</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5617,7 +5408,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>294</v>
+        <v>234</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5629,10 +5420,10 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
@@ -5643,10 +5434,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5657,7 +5448,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5666,16 +5457,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>130</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
+        <v>131</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>298</v>
+        <v>132</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5714,50 +5505,50 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5766,7 +5557,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5775,18 +5566,20 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5835,25 +5628,25 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>302</v>
+        <v>237</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
@@ -5861,42 +5654,46 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>130</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5944,36 +5741,36 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>247</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>128</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5996,13 +5793,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>242</v>
+        <v>311</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6029,13 +5826,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6053,7 +5850,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6068,21 +5865,21 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6108,14 +5905,12 @@
         <v>186</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -6143,10 +5938,10 @@
         <v>190</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6164,7 +5959,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6179,21 +5974,21 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>193</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>325</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6204,7 +5999,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6216,13 +6011,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6273,36 +6068,36 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>235</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6313,7 +6108,7 @@
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
@@ -6325,13 +6120,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>130</v>
+        <v>256</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6370,34 +6165,34 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>264</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6408,14 +6203,12 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6424,7 +6217,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6436,17 +6229,15 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>225</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6495,7 +6286,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6507,10 +6298,10 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6521,10 +6312,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6535,7 +6326,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6544,23 +6335,19 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>334</v>
+        <v>231</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>335</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6608,36 +6395,36 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>339</v>
+        <v>234</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>340</v>
+        <v>235</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>341</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6648,7 +6435,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -6657,23 +6444,19 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>231</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6709,50 +6492,50 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>347</v>
+        <v>237</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6761,7 +6544,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6770,23 +6553,21 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6810,13 +6591,13 @@
         <v>76</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>76</v>
@@ -6834,19 +6615,19 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -6855,19 +6636,19 @@
         <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>358</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6880,22 +6661,26 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6943,7 +6728,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>359</v>
+        <v>247</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6955,10 +6740,10 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>362</v>
+        <v>128</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6969,10 +6754,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6983,7 +6768,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6992,16 +6777,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>233</v>
+        <v>341</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7052,47 +6837,47 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7104,17 +6889,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7163,22 +6946,22 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>237</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7189,46 +6972,42 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7252,13 +7031,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>351</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7276,36 +7055,36 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>254</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7328,13 +7107,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7385,7 +7164,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7400,21 +7179,21 @@
         <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7437,13 +7216,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>186</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7470,13 +7249,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>375</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7494,7 +7273,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7509,21 +7288,21 @@
         <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7534,7 +7313,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7546,13 +7325,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7579,13 +7358,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7603,13 +7382,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -7618,21 +7397,21 @@
         <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7643,7 +7422,7 @@
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
@@ -7652,19 +7431,23 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7688,13 +7471,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>376</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7712,13 +7495,13 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
@@ -7727,21 +7510,21 @@
         <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>378</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7764,13 +7547,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7821,7 +7604,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7836,1444 +7619,13 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC57" s="2"/>
-      <c r="AD57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C58" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O58" s="2"/>
-      <c r="P58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C59" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="D59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C63" s="2"/>
-      <c r="D63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E63" s="2"/>
-      <c r="F63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="C64" s="2"/>
-      <c r="D64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E64" s="2"/>
-      <c r="F64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="P67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>446</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Specimen.xlsx
+++ b/StructureDefinition-profile-Specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9004882-06:00</t>
+    <t>2026-02-20T11:59:20.9476068-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Specimen|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Specimen</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>combined</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.combined|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.combined}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>role</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.role|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.role}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>feature</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature}
 </t>
   </si>
   <si>
@@ -613,7 +613,7 @@
     <t>The type of the specimen.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
   </si>
   <si>
     <t>.code</t>
@@ -647,6 +647,134 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
+    <t>Specimen.subject.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.subject.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Specimen.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `Specimen.subject` has is mapped to FHIR R4 element `Specimen.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>Specimen.subject.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Specimen.subject.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Specimen.subject.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Specimen.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>Specimen.receivedTime</t>
   </si>
   <si>
@@ -735,35 +863,16 @@
     <t>Specimen.collection.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Specimen.collection.extension</t>
   </si>
   <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>Specimen.collection.extension:collection</t>
   </si>
   <si>
     <t>collection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection}
 </t>
   </si>
   <si>
@@ -930,13 +1039,10 @@
     <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Codes describing the fasting status of the patient.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0916|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
   </si>
   <si>
     <t>OBR-</t>
@@ -966,7 +1072,7 @@
     <t>processing</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.processing|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.processing}
 </t>
   </si>
   <si>
@@ -1058,7 +1164,7 @@
     <t>container</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.container|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.container}
 </t>
   </si>
   <si>
@@ -1159,7 +1265,7 @@
     <t>Substance added to specimen container.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0371|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
   </si>
   <si>
     <t>.scopesRole[classCode=ADTV].player</t>
@@ -1186,7 +1292,7 @@
     <t>Codes describing the state of the specimen.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0493|2.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
   </si>
   <si>
     <t>SPM-24</t>
@@ -1512,7 +1618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM55"/>
+  <dimension ref="A1:AM62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1531,7 +1637,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="84.9375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.5234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1545,11 +1651,11 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="32.09375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3588,7 +3694,7 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>204</v>
@@ -3648,7 +3754,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3660,24 +3766,24 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>209</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3700,17 +3806,15 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>130</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>214</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3747,19 +3851,19 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3771,10 +3875,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3785,12 +3889,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="C21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3799,7 +3905,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3811,16 +3917,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3870,7 +3976,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3882,24 +3988,24 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3919,18 +4025,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3979,7 +4087,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3988,27 +4096,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>228</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4028,18 +4136,20 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4064,13 +4174,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4088,7 +4198,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4100,10 +4210,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>128</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4114,10 +4224,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4128,7 +4238,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4137,18 +4247,20 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4185,32 +4297,34 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC24" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4224,11 +4338,9 @@
         <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4246,19 +4358,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4308,22 +4420,22 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4341,26 +4453,26 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>130</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
         <v>245</v>
@@ -4368,12 +4480,8 @@
       <c r="M26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>161</v>
-      </c>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4421,36 +4529,36 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4461,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4470,18 +4578,20 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4530,13 +4640,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4545,21 +4655,21 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4570,7 +4680,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4579,18 +4689,20 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4639,13 +4751,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4654,21 +4766,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4688,16 +4800,16 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4748,7 +4860,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4763,21 +4875,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>268</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4800,13 +4912,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>268</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>269</v>
+        <v>206</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4857,7 +4969,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4869,24 +4981,24 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>270</v>
+        <v>208</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4897,7 +5009,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4909,13 +5021,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>131</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>132</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4942,62 +5054,62 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>272</v>
+        <v>211</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5018,16 +5130,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5053,13 +5165,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>284</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5077,71 +5189,71 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>130</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
@@ -5166,13 +5278,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5190,36 +5302,36 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5230,7 +5342,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5239,16 +5351,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>225</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5299,13 +5411,13 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
@@ -5314,21 +5426,21 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>287</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5348,16 +5460,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
+        <v>291</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>233</v>
+        <v>292</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5408,7 +5520,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5420,24 +5532,24 @@
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5448,7 +5560,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5457,16 +5569,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>131</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5505,35 +5617,37 @@
         <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
@@ -5541,14 +5655,12 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5557,7 +5669,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5569,17 +5681,15 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5628,72 +5738,68 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>237</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5717,13 +5823,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5741,36 +5847,36 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>128</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5793,15 +5899,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5826,13 +5934,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5850,7 +5958,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -5865,21 +5973,21 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5899,19 +6007,23 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>186</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>326</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -5935,13 +6047,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -5959,7 +6071,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5974,21 +6086,21 @@
         <v>97</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6011,13 +6123,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6068,7 +6180,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6083,21 +6195,21 @@
         <v>97</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6120,13 +6232,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>205</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>206</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6177,7 +6289,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>324</v>
+        <v>207</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6189,10 +6301,10 @@
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>259</v>
+        <v>208</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6203,10 +6315,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6229,13 +6341,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>225</v>
+        <v>130</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6274,19 +6386,17 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>327</v>
+        <v>211</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6298,10 +6408,10 @@
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6312,12 +6422,14 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6326,7 +6438,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6338,15 +6450,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6395,22 +6509,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6421,14 +6535,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6441,22 +6555,26 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6492,17 +6610,19 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6517,7 +6637,7 @@
         <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6528,14 +6648,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>76</v>
       </c>
@@ -6544,7 +6662,7 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6556,17 +6674,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>335</v>
+        <v>204</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6615,22 +6731,22 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6641,46 +6757,42 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -6704,13 +6816,13 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>76</v>
+        <v>349</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>76</v>
@@ -6728,22 +6840,22 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>247</v>
+        <v>346</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6754,10 +6866,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6777,16 +6889,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>164</v>
+        <v>352</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6837,7 +6949,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6852,21 +6964,21 @@
         <v>97</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>167</v>
+        <v>355</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6889,13 +7001,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>290</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6946,7 +7058,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -6961,7 +7073,7 @@
         <v>97</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>346</v>
+        <v>293</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6972,10 +7084,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6986,7 +7098,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -6998,13 +7110,13 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7031,13 +7143,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>351</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7055,13 +7167,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7070,21 +7182,21 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>193</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>352</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7107,13 +7219,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>267</v>
+        <v>204</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>354</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>355</v>
+        <v>206</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7164,7 +7276,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>353</v>
+        <v>207</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7176,24 +7288,24 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>356</v>
+        <v>208</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7204,7 +7316,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7216,13 +7328,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>267</v>
+        <v>130</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>359</v>
+        <v>131</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>360</v>
+        <v>132</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7261,50 +7373,50 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>358</v>
+        <v>211</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>365</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7313,7 +7425,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7325,15 +7437,17 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7358,13 +7472,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7382,28 +7496,28 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>363</v>
+        <v>211</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -7415,7 +7529,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7428,25 +7542,25 @@
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>186</v>
+        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>372</v>
+        <v>279</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>373</v>
+        <v>280</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>374</v>
+        <v>160</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>375</v>
+        <v>161</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7471,13 +7585,13 @@
         <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>376</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>76</v>
@@ -7495,7 +7609,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>371</v>
+        <v>281</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7507,24 +7621,24 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>378</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7544,16 +7658,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>380</v>
+        <v>164</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>50</v>
+        <v>373</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7604,7 +7718,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7619,13 +7733,780 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>383</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>416</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-profile-Specimen.xlsx
+++ b/StructureDefinition-profile-Specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="401">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9476068-06:00</t>
+    <t>2026-02-21T13:36:54.3517134-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Specimen</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Specimen|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -446,7 +446,7 @@
     <t>combined</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.combined}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.combined|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -469,7 +469,7 @@
     <t>role</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.role}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.role|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>feature</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.feature|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
@@ -613,7 +613,7 @@
     <t>The type of the specimen.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0487</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0487|2.0.0</t>
   </si>
   <si>
     <t>.code</t>
@@ -647,7 +647,92 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>Specimen.subject.id</t>
+    <t>Specimen.receivedTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>The time when specimen was received for processing</t>
+  </si>
+  <si>
+    <t>Time when specimen was received for processing or testing.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>SPM-18</t>
+  </si>
+  <si>
+    <t>Specimen.parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Specimen from which this specimen originated</t>
+  </si>
+  <si>
+    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
+  </si>
+  <si>
+    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
+  </si>
+  <si>
+    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
+  </si>
+  <si>
+    <t>Specimen.request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Why the specimen was collected</t>
+  </si>
+  <si>
+    <t>Details concerning a service request that required a specimen to be collected.</t>
+  </si>
+  <si>
+    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>Specimen.collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Collection details</t>
+  </si>
+  <si>
+    <t>Details concerning the specimen collection.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>SPM-14</t>
+  </si>
+  <si>
+    <t>Specimen.collection.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -666,220 +751,29 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Specimen.subject.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
+    <t>Specimen.collection.extension</t>
   </si>
   <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Specimen.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
+    <t>Specimen.collection.extension:device</t>
+  </si>
+  <si>
+    <t>device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.device|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for Specimen.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/BiologicallyDerivedProduct in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `Specimen.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `Specimen.subject` has is mapped to FHIR R4 element `Specimen.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>Specimen.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Specimen.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Specimen.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Specimen.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
-    <t>Specimen.receivedTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>The time when specimen was received for processing</t>
-  </si>
-  <si>
-    <t>Time when specimen was received for processing or testing.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[code=SPCREC, moodCode=EVN].effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>SPM-18</t>
-  </si>
-  <si>
-    <t>Specimen.parent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Specimen from which this specimen originated</t>
-  </si>
-  <si>
-    <t>Reference to the parent (source) specimen which is used when the specimen was either derived from or a component of another specimen.</t>
-  </si>
-  <si>
-    <t>The parent specimen could be the source from which the current specimen is derived by some processing step (e.g. an aliquot or isolate or extracted nucleic acids from clinical samples) or one of many specimens that were combined to create a pooled sample.</t>
-  </si>
-  <si>
-    <t>.scoper (if parent) .player.scopesRole[classCode=SPEC].player (if child)</t>
-  </si>
-  <si>
-    <t>Specimen.request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Why the specimen was collected</t>
-  </si>
-  <si>
-    <t>Details concerning a service request that required a specimen to be collected.</t>
-  </si>
-  <si>
-    <t>The request may be explicit or implied such with a ServiceRequest that requires a blood draw.</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>Specimen.collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Collection details</t>
-  </si>
-  <si>
-    <t>Details concerning the specimen collection.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=SPECCOLLECT, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>SPM-14</t>
-  </si>
-  <si>
-    <t>Specimen.collection.id</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension</t>
-  </si>
-  <si>
-    <t>Specimen.collection.extension:collection</t>
-  </si>
-  <si>
-    <t>collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.collection from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Specimen.collection` has is mapped to FHIR R4 element `Specimen.collection`, but has no comparisons.</t>
+    <t>Cross-version extension for Specimen.collection.device from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A coded value specifying the technique that is used to perform the procedure.</t>
+  </si>
+  <si>
+    <t>Element `Specimen.collection.device` has a context of Specimen.collection based on following the parent source element upwards and mapping to `Specimen`.</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -981,9 +875,6 @@
     <t>Technique used to perform collection</t>
   </si>
   <si>
-    <t>A coded value specifying the technique that is used to perform the procedure.</t>
-  </si>
-  <si>
     <t>The  technique that is used to perform the procedure.</t>
   </si>
   <si>
@@ -1018,6 +909,83 @@
   </si>
   <si>
     <t>SPM-8 and SPM-9</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.id</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.extension:bodySite</t>
+  </si>
+  <si>
+    <t>bodySite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.collection.bodySite|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for Specimen.collection.bodySite from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `Specimen.collection.bodySite` is mapped to FHIR R4 element `Specimen.collection.bodySite` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Specimen.collection.bodySite.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
   </si>
   <si>
     <t>Specimen.collection.fastingStatus[x]</t>
@@ -1039,10 +1007,13 @@
     <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>Codes describing the fasting status of the patient.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0916</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0916|2.0.0</t>
   </si>
   <si>
     <t>OBR-</t>
@@ -1066,20 +1037,10 @@
     <t>Specimen.processing.extension</t>
   </si>
   <si>
-    <t>Specimen.processing.extension:processing</t>
-  </si>
-  <si>
-    <t>processing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.processing}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.processing from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Specimen.processing` has is mapped to FHIR R4 element `Specimen.processing`, but has no comparisons.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Specimen.processing.modifierExtension</t>
@@ -1158,22 +1119,6 @@
     <t>Specimen.container.extension</t>
   </si>
   <si>
-    <t>Specimen.container.extension:container</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Specimen.container}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for Specimen.container from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `Specimen.container` has is mapped to FHIR R4 element `Specimen.container`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>Specimen.container.modifierExtension</t>
   </si>
   <si>
@@ -1265,7 +1210,7 @@
     <t>Substance added to specimen container.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0371</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0371|2.0.0</t>
   </si>
   <si>
     <t>.scopesRole[classCode=ADTV].player</t>
@@ -1292,7 +1237,7 @@
     <t>Codes describing the state of the specimen.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0493</t>
+    <t>http://terminology.hl7.org/ValueSet/v2-0493|2.0.0</t>
   </si>
   <si>
     <t>SPM-24</t>
@@ -1618,7 +1563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM62"/>
+  <dimension ref="A1:AM58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1627,7 +1572,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.1640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.90625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1637,7 +1582,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1651,7 +1596,7 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.6796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.3203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="54.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
@@ -3694,7 +3639,7 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>204</v>
@@ -3754,7 +3699,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3766,24 +3711,24 @@
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3806,15 +3751,17 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3851,19 +3798,19 @@
         <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3875,10 +3822,10 @@
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3889,14 +3836,12 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>213</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3905,7 +3850,7 @@
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>76</v>
@@ -3917,16 +3862,16 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3976,7 +3921,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3988,24 +3933,24 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>221</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4025,20 +3970,18 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -4087,7 +4030,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4096,27 +4039,27 @@
         <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4136,20 +4079,18 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>99</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4174,13 +4115,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>230</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -4198,7 +4139,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4210,10 +4151,10 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -4224,10 +4165,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4238,7 +4179,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4247,20 +4188,18 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
@@ -4297,34 +4236,32 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
@@ -4338,9 +4275,11 @@
         <v>238</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4358,19 +4297,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4420,22 +4359,22 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4446,42 +4385,46 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4529,36 +4472,36 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>249</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4569,7 +4512,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4578,20 +4521,18 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>254</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
@@ -4640,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4655,13 +4596,13 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -4680,7 +4621,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4689,7 +4630,7 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>257</v>
@@ -4700,9 +4641,7 @@
       <c r="M28" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N28" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4757,7 +4696,7 @@
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -4766,21 +4705,21 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4800,16 +4739,16 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4860,7 +4799,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4875,21 +4814,21 @@
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4912,13 +4851,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>205</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4969,7 +4908,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4981,24 +4920,24 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>208</v>
+        <v>271</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5009,7 +4948,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5021,13 +4960,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>132</v>
+        <v>242</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5054,62 +4993,62 @@
         <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5130,16 +5069,16 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>274</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5165,13 +5104,13 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>284</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5189,72 +5128,68 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>211</v>
+        <v>279</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>279</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5302,22 +5237,22 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -5328,10 +5263,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5342,7 +5277,7 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
@@ -5351,16 +5286,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
+        <v>132</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5399,50 +5334,52 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>286</v>
+        <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5460,18 +5397,20 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5520,36 +5459,36 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>289</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5560,7 +5499,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -5572,16 +5511,20 @@
         <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5629,13 +5572,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -5644,21 +5587,21 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5678,19 +5621,23 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
       </c>
@@ -5738,7 +5685,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5753,21 +5700,21 @@
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5787,19 +5734,23 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>313</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>76</v>
       </c>
@@ -5823,13 +5774,13 @@
         <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>76</v>
@@ -5847,7 +5798,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5862,21 +5813,21 @@
         <v>97</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5887,7 +5838,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5899,17 +5850,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5934,13 +5883,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -5958,13 +5907,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5973,21 +5922,21 @@
         <v>97</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6007,23 +5956,19 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6047,13 +5992,13 @@
         <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>228</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>328</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>76</v>
@@ -6071,7 +6016,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>234</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6083,28 +6028,28 @@
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6123,15 +6068,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6180,7 +6127,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>237</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6192,10 +6139,10 @@
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -6206,42 +6153,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>76</v>
       </c>
@@ -6289,22 +6240,22 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>208</v>
+        <v>128</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -6315,10 +6266,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6329,7 +6280,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6341,13 +6292,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>132</v>
+        <v>333</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6386,32 +6337,34 @@
         <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>211</v>
+        <v>331</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6422,14 +6375,12 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>337</v>
-      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>76</v>
       </c>
@@ -6438,7 +6389,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6450,17 +6401,15 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>338</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6485,13 +6434,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>339</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6509,22 +6458,22 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>211</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6535,14 +6484,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6555,26 +6504,22 @@
         <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>130</v>
+        <v>341</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>342</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6622,7 +6567,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6634,24 +6579,24 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>128</v>
+        <v>344</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6674,13 +6619,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6731,7 +6676,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6746,7 +6691,7 @@
         <v>97</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>345</v>
+        <v>260</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6757,10 +6702,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6771,7 +6716,7 @@
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6783,13 +6728,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6816,37 +6761,37 @@
         <v>76</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -6855,7 +6800,7 @@
         <v>97</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>193</v>
+        <v>352</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
@@ -6866,10 +6811,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6880,7 +6825,7 @@
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6892,13 +6837,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>352</v>
+        <v>231</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6949,47 +6894,47 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>355</v>
+        <v>235</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7001,15 +6946,17 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7058,22 +7005,22 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -7084,14 +7031,14 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7104,22 +7051,26 @@
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>265</v>
+        <v>130</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -7167,7 +7118,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>360</v>
+        <v>248</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7179,10 +7130,10 @@
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>363</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -7193,10 +7144,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7207,7 +7158,7 @@
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7216,16 +7167,16 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7276,36 +7227,36 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>207</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7316,7 +7267,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7328,13 +7279,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>130</v>
+        <v>231</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>131</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>132</v>
+        <v>362</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7373,32 +7324,34 @@
         <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>211</v>
+        <v>360</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>363</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7409,14 +7362,12 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7425,7 +7376,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>76</v>
@@ -7437,17 +7388,15 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>186</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7472,13 +7421,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>368</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7496,72 +7445,68 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>211</v>
+        <v>364</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>130</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>279</v>
+        <v>371</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7609,36 +7554,36 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>128</v>
+        <v>373</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7649,7 +7594,7 @@
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7658,16 +7603,16 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7718,13 +7663,13 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
@@ -7733,21 +7678,21 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>167</v>
+        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7770,13 +7715,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>204</v>
+        <v>381</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7803,13 +7748,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -7827,7 +7772,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7842,21 +7787,21 @@
         <v>97</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7867,7 +7812,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -7876,19 +7821,23 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>76</v>
       </c>
@@ -7912,13 +7861,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>190</v>
+        <v>318</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -7936,13 +7885,13 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
@@ -7951,21 +7900,21 @@
         <v>97</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -7976,7 +7925,7 @@
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -7988,13 +7937,13 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>301</v>
+        <v>397</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>387</v>
+        <v>50</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8045,13 +7994,13 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
@@ -8060,453 +8009,13 @@
         <v>97</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q59" s="2"/>
-      <c r="R59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E60" s="2"/>
-      <c r="F60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q60" s="2"/>
-      <c r="R60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="Y60" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E61" s="2"/>
-      <c r="F61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="P61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E62" s="2"/>
-      <c r="F62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>416</v>
       </c>
     </row>
   </sheetData>
